--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3524.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3524.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.681178066061744</v>
+        <v>1.515473961830139</v>
       </c>
       <c r="B1">
-        <v>2.563431619092829</v>
+        <v>2.007537364959717</v>
       </c>
       <c r="C1">
-        <v>3.002889600066027</v>
+        <v>2.089452981948853</v>
       </c>
       <c r="D1">
-        <v>3.441596951104596</v>
+        <v>1.634312868118286</v>
       </c>
       <c r="E1">
-        <v>1.970098378679512</v>
+        <v>1.455596804618835</v>
       </c>
     </row>
   </sheetData>
